--- a/analysis/version89-depthshallow again.xlsx
+++ b/analysis/version89-depthshallow again.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23613"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="20" windowWidth="25600" windowHeight="13860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13860" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="29">
   <si>
     <t>kn/s</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t>ratio</t>
-  </si>
-  <si>
-    <t>all programs are depth 10/18, rand off, 21000 kn/s</t>
   </si>
   <si>
     <t>original</t>
@@ -104,6 +101,12 @@
   </si>
   <si>
     <t>0x8,1x4,2Dist12RDTE</t>
+  </si>
+  <si>
+    <t>all programs are rand off, 21000 kl/s</t>
+  </si>
+  <si>
+    <t>all programs are depth 10/18, rand off, 21000 kl/s</t>
   </si>
 </sst>
 </file>
@@ -242,12 +245,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -660,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U73"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -674,49 +677,49 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3" t="s">
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
-      <c r="S3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="T3" s="3"/>
-      <c r="U3" s="3"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
     </row>
     <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>1</v>
@@ -725,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -734,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>1</v>
@@ -743,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>1</v>
@@ -752,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>1</v>
@@ -761,7 +764,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>1</v>
@@ -770,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>1</v>
@@ -887,7 +890,7 @@
         <v>0.12</v>
       </c>
       <c r="C7" s="2">
-        <f t="shared" ref="C7:C51" si="0">A7/B7</f>
+        <f t="shared" ref="C7:C50" si="0">A7/B7</f>
         <v>728.33333333333337</v>
       </c>
       <c r="D7">
@@ -897,7 +900,7 @@
         <v>0.13</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" ref="F7:F51" si="1">D7/E7</f>
+        <f t="shared" ref="F7:F50" si="1">D7/E7</f>
         <v>686.15384615384619</v>
       </c>
       <c r="G7">
@@ -907,7 +910,7 @@
         <v>0.12</v>
       </c>
       <c r="I7" s="2">
-        <f t="shared" ref="I7:I52" si="2">G7/H7</f>
+        <f t="shared" ref="I7:I50" si="2">G7/H7</f>
         <v>704.16666666666674</v>
       </c>
       <c r="J7">
@@ -917,7 +920,7 @@
         <v>0.11</v>
       </c>
       <c r="L7" s="2">
-        <f t="shared" ref="L7:L51" si="3">J7/K7</f>
+        <f t="shared" ref="L7:L50" si="3">J7/K7</f>
         <v>704.5454545454545</v>
       </c>
       <c r="M7">
@@ -927,7 +930,7 @@
         <v>0.14000000000000001</v>
       </c>
       <c r="O7" s="2">
-        <f t="shared" ref="O7:O51" si="4">M7/N7</f>
+        <f t="shared" ref="O7:O50" si="4">M7/N7</f>
         <v>658.57142857142856</v>
       </c>
       <c r="P7">
@@ -4407,7 +4410,7 @@
     </row>
     <row r="68" spans="1:20">
       <c r="M68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:20">
@@ -4471,7 +4474,7 @@
     </row>
     <row r="72" spans="1:20">
       <c r="S72" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:20">
@@ -4508,8 +4511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AG18" sqref="AG18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4519,77 +4522,77 @@
   <sheetData>
     <row r="1" spans="1:34">
       <c r="A1" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:34">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:34">
       <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7" t="s">
-        <v>17</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3" t="s">
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="3"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="U4" s="3"/>
-      <c r="V4" s="3"/>
-      <c r="W4" s="3" t="s">
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
-      <c r="Z4" s="3" t="s">
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="3"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3" t="s">
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="AD4" s="3"/>
-      <c r="AE4" s="3"/>
-      <c r="AF4" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="AG4" s="3"/>
-      <c r="AH4" s="3"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
     </row>
     <row r="5" spans="1:34">
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -4597,17 +4600,17 @@
       <c r="D5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>1</v>
@@ -4616,7 +4619,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>1</v>
@@ -4625,7 +4628,7 @@
         <v>0</v>
       </c>
       <c r="N5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>1</v>
@@ -4634,7 +4637,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R5" s="1" t="s">
         <v>1</v>
@@ -4643,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U5" s="1" t="s">
         <v>1</v>
@@ -4652,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>1</v>
@@ -4661,7 +4664,7 @@
         <v>0</v>
       </c>
       <c r="Z5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>1</v>
@@ -4670,7 +4673,7 @@
         <v>0</v>
       </c>
       <c r="AC5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AD5" s="1" t="s">
         <v>1</v>
@@ -4679,7 +4682,7 @@
         <v>0</v>
       </c>
       <c r="AF5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG5" s="1" t="s">
         <v>1</v>
@@ -4702,13 +4705,13 @@
         <f>B6/C6</f>
         <v>1004.6850598646538</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>19100</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>18.72</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="5">
         <f>E6/F6</f>
         <v>1020.2991452991454</v>
       </c>
@@ -4817,13 +4820,13 @@
         <f>B7/C7</f>
         <v>1177.197802197802</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>8570</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>7.12</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="5">
         <f t="shared" ref="G7:G10" si="0">E7/F7</f>
         <v>1203.6516853932585</v>
       </c>
@@ -4932,13 +4935,13 @@
         <f>B8/C8</f>
         <v>1315.1260504201682</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>3120</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F8" s="4">
         <v>2.31</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>1350.6493506493507</v>
       </c>
@@ -5047,13 +5050,13 @@
         <f>B9/C9</f>
         <v>1522.2929936305732</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>2410</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="4">
         <v>1.54</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>1564.9350649350649</v>
       </c>
@@ -5162,13 +5165,13 @@
         <f>B10/C10</f>
         <v>1642.8571428571429</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>1180</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0.7</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>1685.7142857142858</v>
       </c>
@@ -5274,13 +5277,13 @@
         <v>0.16</v>
       </c>
       <c r="D11" s="2"/>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>257</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0.16</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="5"/>
       <c r="H11">
         <v>253</v>
       </c>
@@ -5356,13 +5359,13 @@
         <v>0.04</v>
       </c>
       <c r="D12" s="2"/>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>73.400000000000006</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="4">
         <v>0.04</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="H12">
         <v>70.8</v>
       </c>
@@ -5430,9 +5433,9 @@
     <row r="13" spans="1:34">
       <c r="C13" s="1"/>
       <c r="D13" s="2"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="I13" s="1"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -5472,15 +5475,15 @@
         <f>AVERAGE(C6:C10)</f>
         <v>6.2279999999999998</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="5">
         <f>AVERAGE(E6:E10)</f>
         <v>6876</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F14" s="4">
         <f>AVERAGE(F6:F10)</f>
         <v>6.0779999999999994</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="4"/>
       <c r="H14" s="2">
         <f>AVERAGE(H6:H10)</f>
         <v>6820</v>
@@ -5567,10 +5570,10 @@
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="U15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:34">
@@ -5676,12 +5679,12 @@
     <mergeCell ref="Z4:AB4"/>
     <mergeCell ref="AC4:AE4"/>
     <mergeCell ref="AF4:AH4"/>
+    <mergeCell ref="Q4:S4"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:M4"/>
     <mergeCell ref="N4:P4"/>
-    <mergeCell ref="Q4:S4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
